--- a/LF/TAS/Benin/Apr 2023/bj_lf_tas3_202304_3_fts_result.xlsx
+++ b/LF/TAS/Benin/Apr 2023/bj_lf_tas3_202304_3_fts_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12375" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12375" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
     <t>Ligne témoin discontinue/partielle</t>
   </si>
   <si>
-    <t>Difficulte.d’absorption.d’echantillon</t>
+    <t>Difficulte.d.absorption.d.echantillon</t>
   </si>
   <si>
     <t>Difficulty of absorbing sample</t>
@@ -529,7 +529,7 @@
     <t>Difficulté d’absorption d’échantillon</t>
   </si>
   <si>
-    <t>Difficulte.de.migration.d’echantillon</t>
+    <t>Difficulte.de.migration.d.echantillon</t>
   </si>
   <si>
     <t>Difficulty of migrating sample</t>
@@ -591,12 +591,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -639,18 +639,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -661,9 +654,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,22 +670,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,10 +707,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,16 +737,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,6 +752,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -760,15 +767,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,187 +810,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,6 +1034,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1036,56 +1054,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,6 +1082,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1122,145 +1105,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1362,7 +1377,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1370,46 +1385,48 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Check Cell" xfId="8" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="9" builtinId="17"/>
-    <cellStyle name="Note" xfId="10" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="11" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="12" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="13" builtinId="35"/>
-    <cellStyle name="Title" xfId="14" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="15" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="16" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="17" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="18" builtinId="19"/>
-    <cellStyle name="Input" xfId="19" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="20" builtinId="40"/>
-    <cellStyle name="Good" xfId="21" builtinId="26"/>
-    <cellStyle name="Output" xfId="22" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="23" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="24" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="25" builtinId="24"/>
-    <cellStyle name="Total" xfId="26" builtinId="25"/>
-    <cellStyle name="Bad" xfId="27" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="29" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="30" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="31" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="32" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="33" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="34" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="35" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="36" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="37" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="40" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="43" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="46" builtinId="52"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -2696,10 +2713,10 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="$A4:$XFD5"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -2909,7 +2926,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/LF/TAS/Benin/Apr 2023/bj_lf_tas3_202304_3_fts_result.xlsx
+++ b/LF/TAS/Benin/Apr 2023/bj_lf_tas3_202304_3_fts_result.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\TAS\Benin\Apr 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8699400-F29C-4D7A-A796-0FA82130FE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12375" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="178">
   <si>
     <t>type</t>
   </si>
@@ -424,18 +430,6 @@
     <t>Le résultat final de ce participant est: ${d_final_result}</t>
   </si>
   <si>
-    <t>d_positive_why_no_tx</t>
-  </si>
-  <si>
-    <t>Please specify the plan to treat this participant or explain why treatment is not possible.</t>
-  </si>
-  <si>
-    <t>Veuillez préciser le plan de traitement de ce participant ou expliquer pourquoi le traitement n'est pas possible.</t>
-  </si>
-  <si>
-    <t>${d_final_result} = 'Positif'</t>
-  </si>
-  <si>
     <t>notes_part</t>
   </si>
   <si>
@@ -577,26 +571,20 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(2023 Avril) - 3. Formulaire FTS Résultat</t>
-  </si>
-  <si>
-    <t>bj_lf_tas3_202304_3_fts_result</t>
-  </si>
-  <si>
     <t>French</t>
+  </si>
+  <si>
+    <t>bj_lf_tas3_202304_3_fts_result_v1</t>
+  </si>
+  <si>
+    <t>(2023 Avril) - 3. Formulaire FTS Résultat V1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -609,7 +597,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -617,173 +605,36 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,194 +659,8 @@
         <bgColor rgb="FFFBE4D5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1020,266 +685,24 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1294,7 +717,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1317,43 +740,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1369,75 +774,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
-      <color rgb="00CCECFF"/>
-      <color rgb="00CCFFCC"/>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1695,20 +1059,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1731,7 +1094,7 @@
     <col min="16" max="16" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="18.75" spans="1:17">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="37.5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1780,11 +1143,11 @@
       <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="63" spans="1:16">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="63">
       <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
@@ -1803,26 +1166,26 @@
       <c r="F2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="27" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="15"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19" t="s">
+      <c r="L2" s="14"/>
+      <c r="M2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
       <c r="P2" s="14"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:16">
+    <row r="3" spans="1:17" s="3" customFormat="1">
       <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
@@ -1836,21 +1199,21 @@
       <c r="E3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="15"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="27"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N3" s="15"/>
-      <c r="O3" s="19"/>
+      <c r="O3" s="14"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:16">
+    <row r="4" spans="1:17" s="3" customFormat="1">
       <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
@@ -1864,25 +1227,25 @@
       <c r="E4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="27"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N4" s="15"/>
-      <c r="O4" s="19"/>
+      <c r="O4" s="14"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:16">
+    <row r="5" spans="1:17" s="3" customFormat="1">
       <c r="A5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -1892,21 +1255,21 @@
       <c r="E5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="15"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="27"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N5" s="15"/>
-      <c r="O5" s="19"/>
+      <c r="O5" s="14"/>
       <c r="P5" s="14"/>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:16">
+    <row r="6" spans="1:17" s="3" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>27</v>
       </c>
@@ -1920,305 +1283,305 @@
       <c r="E6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="15"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="27"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N6" s="15"/>
-      <c r="O6" s="19"/>
+      <c r="O6" s="14"/>
       <c r="P6" s="14"/>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:13">
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="31.5">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="6"/>
       <c r="H7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:13">
+    <row r="8" spans="1:17" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="6"/>
       <c r="H8" s="3" t="s">
         <v>50</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="47.25" spans="1:17">
+    <row r="9" spans="1:17" s="3" customFormat="1" ht="47.25">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="23"/>
+      <c r="F9" s="6"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="27"/>
+      <c r="J9" s="20"/>
       <c r="L9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="31.5" spans="1:16">
+    <row r="10" spans="1:17" s="3" customFormat="1" ht="31.5">
       <c r="A10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="15"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="21"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
       <c r="P10" s="14"/>
     </row>
-    <row r="11" s="3" customFormat="1" ht="31.5" spans="1:16">
+    <row r="11" spans="1:17" s="3" customFormat="1" ht="31.5">
       <c r="A11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="24"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:16">
+    <row r="12" spans="1:17" s="3" customFormat="1">
       <c r="A12" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="24" t="s">
+      <c r="I12" s="28"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="15" t="s">
         <v>70</v>
       </c>
       <c r="L12" s="15"/>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:16">
+    <row r="13" spans="1:17" s="3" customFormat="1">
       <c r="A13" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="20" t="s">
         <v>74</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="24" t="s">
+      <c r="I13" s="28"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="15" t="s">
         <v>75</v>
       </c>
       <c r="L13" s="15"/>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:16">
+    <row r="14" spans="1:17" s="3" customFormat="1">
       <c r="A14" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="24"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
     </row>
-    <row r="15" s="3" customFormat="1" ht="63" spans="1:16">
+    <row r="15" spans="1:17" s="3" customFormat="1" ht="63">
       <c r="A15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="26" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="27"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="24" t="s">
+      <c r="I15" s="28"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="15" t="s">
         <v>83</v>
       </c>
       <c r="L15" s="14"/>
-      <c r="M15" s="19"/>
+      <c r="M15" s="14"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:16">
+    <row r="16" spans="1:17" s="3" customFormat="1">
       <c r="A16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="31"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="24" t="s">
+      <c r="I16" s="28"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="15" t="s">
         <v>83</v>
       </c>
       <c r="L16" s="14"/>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N16" s="14"/>
@@ -2229,497 +1592,466 @@
       <c r="A17" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="24" t="s">
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="19" t="s">
+      <c r="L17" s="22"/>
+      <c r="M17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="24" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="28"/>
-      <c r="M18" s="19" t="s">
+      <c r="L18" s="22"/>
+      <c r="M18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="24" t="s">
+      <c r="F19" s="25"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="19" t="s">
+      <c r="L19" s="22"/>
+      <c r="M19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="24" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="15" t="s">
         <v>83</v>
       </c>
       <c r="L20" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="63" spans="1:16">
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+    </row>
+    <row r="21" spans="1:16" s="3" customFormat="1" ht="63">
       <c r="A21" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="27"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="24" t="s">
+      <c r="I21" s="28"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="15" t="s">
         <v>104</v>
       </c>
       <c r="L21" s="14"/>
-      <c r="M21" s="19"/>
+      <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
     </row>
-    <row r="22" s="3" customFormat="1" ht="47.25" spans="1:16">
+    <row r="22" spans="1:16" s="3" customFormat="1" ht="47.25">
       <c r="A22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="31"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="24" t="s">
+      <c r="I22" s="28"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="15" t="s">
         <v>104</v>
       </c>
       <c r="L22" s="14"/>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
     </row>
-    <row r="23" ht="47.25" spans="1:16">
+    <row r="23" spans="1:16" ht="47.25">
       <c r="A23" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="24" t="s">
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="19" t="s">
+      <c r="L23" s="22"/>
+      <c r="M23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="24" t="s">
+      <c r="F24" s="25"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="19" t="s">
+      <c r="L24" s="22"/>
+      <c r="M24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="24" t="s">
+      <c r="F25" s="25"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="L25" s="28"/>
-      <c r="M25" s="19" t="s">
+      <c r="L25" s="22"/>
+      <c r="M25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="14"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-    </row>
-    <row r="27" ht="47.25" spans="1:16">
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+    </row>
+    <row r="27" spans="1:16" ht="47.25">
       <c r="A27" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="24" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="15" t="s">
         <v>120</v>
       </c>
       <c r="L27" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="24" t="s">
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="L28" s="35" t="s">
+      <c r="L28" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31" t="s">
+      <c r="D29" s="24"/>
+      <c r="E29" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="24" t="s">
+      <c r="F29" s="25"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-    </row>
-    <row r="30" ht="31.5" spans="1:16">
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31" t="s">
+      <c r="D30" s="24"/>
+      <c r="E30" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
+        <v>133</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
@@ -2729,7 +2061,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2741,233 +2073,231 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="C3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="B5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="C5" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D5" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="B7" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="C7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
         <v>153</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="8" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C9" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="8" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="8" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C11" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="8" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C12" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="8" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C13" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>174</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A7:C52">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:C52">
     <sortCondition ref="B7:B52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="53.5" customWidth="1"/>
-    <col min="2" max="2" width="31.875" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="53.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="31" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="31">
+        <v>20210412</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>175</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2">
-        <v>20210412</v>
-      </c>
-      <c r="D2" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>